--- a/tables/sample_metadata.xlsx
+++ b/tables/sample_metadata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="2145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="2143">
   <si>
     <t xml:space="preserve">technique</t>
   </si>
@@ -3526,7 +3526,7 @@
     <t xml:space="preserve">OV-008-Om-S1</t>
   </si>
   <si>
-    <t xml:space="preserve">SPECTRUM-OV-008_S1_INFRARENAL_LYMPH_NODE_R1</t>
+    <t xml:space="preserve">SPECTRUM-OV-008_S1_LYMPH_NODE_R1</t>
   </si>
   <si>
     <t xml:space="preserve">SHAH_H000011_T14_01_HE01</t>
@@ -3709,7 +3709,7 @@
     <t xml:space="preserve">OV-031-LAdnx-S1</t>
   </si>
   <si>
-    <t xml:space="preserve">SPECTRUM-OV-031_S1_LYMPH_NODE_R1</t>
+    <t xml:space="preserve">SPECTRUM-OV-031_S1_INFRARENAL_LYMPH_NODE_R1</t>
   </si>
   <si>
     <t xml:space="preserve">SHAH_H000023_T08_01_HE01</t>
@@ -4498,9 +4498,6 @@
     <t xml:space="preserve">SPECTRUM-OV-008 LN</t>
   </si>
   <si>
-    <t xml:space="preserve">SPECTRUM-OV-008_S1_LYMPH_NODE_R1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHAH_H000011_T09_01_IF01</t>
   </si>
   <si>
@@ -4625,9 +4622,6 @@
   </si>
   <si>
     <t xml:space="preserve">SPECTRUM-OV-031 LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECTRUM-OV-031_S1_INFRARENAL_LYMPH_NODE_R1</t>
   </si>
   <si>
     <t xml:space="preserve">SHAH_H000023_T03_02_IF01</t>
@@ -27321,7 +27315,7 @@
         <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="P17" t="s">
         <v>54</v>
@@ -28708,7 +28702,7 @@
         <v>154</v>
       </c>
       <c r="O36" t="s">
-        <v>155</v>
+        <v>369</v>
       </c>
       <c r="P36" t="s">
         <v>54</v>
@@ -34650,10 +34644,10 @@
         <v>1492</v>
       </c>
       <c r="E17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F17" t="s">
         <v>1493</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1494</v>
       </c>
       <c r="G17" t="s">
         <v>1171</v>
@@ -34715,16 +34709,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D18" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E18" t="s">
         <v>1172</v>
       </c>
       <c r="F18" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G18" t="s">
         <v>1174</v>
@@ -34786,16 +34780,16 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D19" t="s">
         <v>1497</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1498</v>
       </c>
       <c r="E19" t="s">
         <v>1175</v>
       </c>
       <c r="F19" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G19" t="s">
         <v>1177</v>
@@ -34857,16 +34851,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D20" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E20" t="s">
         <v>1178</v>
       </c>
       <c r="F20" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G20" t="s">
         <v>1180</v>
@@ -34928,16 +34922,16 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D21" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E21" t="s">
         <v>1181</v>
       </c>
       <c r="F21" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G21" t="s">
         <v>1183</v>
@@ -34999,16 +34993,16 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D22" t="s">
         <v>1504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1505</v>
       </c>
       <c r="E22" t="s">
         <v>1184</v>
       </c>
       <c r="F22" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G22" t="s">
         <v>1186</v>
@@ -35070,16 +35064,16 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D23" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E23" t="s">
         <v>1187</v>
       </c>
       <c r="F23" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G23" t="s">
         <v>1189</v>
@@ -35141,16 +35135,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D24" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E24" t="s">
         <v>1190</v>
       </c>
       <c r="F24" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G24" t="s">
         <v>1192</v>
@@ -35212,16 +35206,16 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D25" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E25" t="s">
         <v>1195</v>
       </c>
       <c r="F25" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G25" t="s">
         <v>1197</v>
@@ -35283,16 +35277,16 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D26" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E26" t="s">
         <v>1198</v>
       </c>
       <c r="F26" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G26" t="s">
         <v>1200</v>
@@ -35354,16 +35348,16 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D27" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E27" t="s">
         <v>1201</v>
       </c>
       <c r="F27" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G27" t="s">
         <v>1203</v>
@@ -35425,16 +35419,16 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D28" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E28" t="s">
         <v>1204</v>
       </c>
       <c r="F28" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G28" t="s">
         <v>1206</v>
@@ -35496,16 +35490,16 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D29" t="s">
         <v>1519</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1520</v>
       </c>
       <c r="E29" t="s">
         <v>1207</v>
       </c>
       <c r="F29" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G29" t="s">
         <v>1209</v>
@@ -35567,16 +35561,16 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D30" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E30" t="s">
         <v>1210</v>
       </c>
       <c r="F30" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G30" t="s">
         <v>1212</v>
@@ -35638,16 +35632,16 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D31" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E31" t="s">
         <v>1213</v>
       </c>
       <c r="F31" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G31" t="s">
         <v>1215</v>
@@ -35709,16 +35703,16 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D32" t="s">
         <v>1526</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1527</v>
       </c>
       <c r="E32" t="s">
         <v>1217</v>
       </c>
       <c r="F32" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G32" t="s">
         <v>1219</v>
@@ -35780,16 +35774,16 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D33" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E33" t="s">
         <v>1220</v>
       </c>
       <c r="F33" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G33" t="s">
         <v>1222</v>
@@ -35851,16 +35845,16 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D34" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E34" t="s">
         <v>1224</v>
       </c>
       <c r="F34" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="G34" t="s">
         <v>1226</v>
@@ -35922,16 +35916,16 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E35" t="s">
         <v>1227</v>
       </c>
       <c r="F35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G35" t="s">
         <v>1229</v>
@@ -35993,16 +35987,16 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F36" t="s">
         <v>1535</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1537</v>
       </c>
       <c r="G36" t="s">
         <v>1232</v>
@@ -36064,16 +36058,16 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D37" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E37" t="s">
         <v>1233</v>
       </c>
       <c r="F37" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="G37" t="s">
         <v>1235</v>
@@ -36135,16 +36129,16 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D38" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E38" t="s">
         <v>1236</v>
       </c>
       <c r="F38" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="G38" t="s">
         <v>1238</v>
@@ -36206,16 +36200,16 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D39" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E39" t="s">
         <v>1240</v>
       </c>
       <c r="F39" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="G39" t="s">
         <v>1242</v>
@@ -36277,16 +36271,16 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D40" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E40" t="s">
         <v>1243</v>
       </c>
       <c r="F40" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="G40" t="s">
         <v>1245</v>
@@ -36348,16 +36342,16 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D41" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E41" t="s">
         <v>1246</v>
       </c>
       <c r="F41" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="G41" t="s">
         <v>1248</v>
@@ -36419,16 +36413,16 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D42" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E42" t="s">
         <v>1249</v>
       </c>
       <c r="F42" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="G42" t="s">
         <v>1251</v>
@@ -36490,16 +36484,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="D43" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E43" t="s">
         <v>1253</v>
       </c>
       <c r="F43" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="G43" t="s">
         <v>1255</v>
@@ -36561,16 +36555,16 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D44" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E44" t="s">
         <v>1256</v>
       </c>
       <c r="F44" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G44" t="s">
         <v>1258</v>
@@ -36632,16 +36626,16 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D45" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E45" t="s">
         <v>1260</v>
       </c>
       <c r="F45" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="G45" t="s">
         <v>1262</v>
@@ -36703,16 +36697,16 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D46" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E46" t="s">
         <v>1263</v>
       </c>
       <c r="F46" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="G46" t="s">
         <v>1265</v>
@@ -36774,16 +36768,16 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D47" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E47" t="s">
         <v>1266</v>
       </c>
       <c r="F47" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="G47" t="s">
         <v>1268</v>
@@ -36845,16 +36839,16 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D48" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E48" t="s">
         <v>1270</v>
       </c>
       <c r="F48" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="G48" t="s">
         <v>1272</v>
@@ -36916,16 +36910,16 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D49" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E49" t="s">
         <v>1274</v>
       </c>
       <c r="F49" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="G49" t="s">
         <v>1276</v>
@@ -36987,16 +36981,16 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D50" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E50" t="s">
         <v>1277</v>
       </c>
       <c r="F50" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G50" t="s">
         <v>1279</v>
@@ -37058,16 +37052,16 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D51" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E51" t="s">
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="G51" t="s">
         <v>1283</v>
@@ -37129,16 +37123,16 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D52" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E52" t="s">
         <v>1284</v>
       </c>
       <c r="F52" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="G52" t="s">
         <v>1286</v>
@@ -37200,16 +37194,16 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D53" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E53" t="s">
         <v>1288</v>
       </c>
       <c r="F53" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="G53" t="s">
         <v>1290</v>
@@ -37271,16 +37265,16 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D54" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E54" t="s">
         <v>1292</v>
       </c>
       <c r="F54" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="G54" t="s">
         <v>1294</v>
@@ -37342,16 +37336,16 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D55" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E55" t="s">
         <v>1296</v>
       </c>
       <c r="F55" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="G55" t="s">
         <v>1298</v>
@@ -37413,16 +37407,16 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D56" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E56" t="s">
         <v>1299</v>
       </c>
       <c r="F56" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="G56" t="s">
         <v>1301</v>
@@ -37484,16 +37478,16 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D57" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E57" t="s">
         <v>1302</v>
       </c>
       <c r="F57" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="G57" t="s">
         <v>1304</v>
@@ -37555,16 +37549,16 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D58" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E58" t="s">
         <v>1305</v>
       </c>
       <c r="F58" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G58" t="s">
         <v>1307</v>
@@ -37626,16 +37620,16 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D59" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E59" t="s">
         <v>1309</v>
       </c>
       <c r="F59" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G59" t="s">
         <v>1311</v>
@@ -37697,16 +37691,16 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D60" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E60" t="s">
         <v>1313</v>
       </c>
       <c r="F60" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="G60" t="s">
         <v>1315</v>
@@ -37768,10 +37762,10 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D61" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E61" t="s">
         <v>1316</v>
@@ -37837,20 +37831,20 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D62" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E62" t="s">
         <v>1319</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H62" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="I62" t="s">
         <v>610</v>
@@ -37906,16 +37900,16 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D63" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E63" t="s">
         <v>1326</v>
       </c>
       <c r="F63" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="G63" t="s">
         <v>1328</v>
@@ -37977,10 +37971,10 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D64" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E64" t="s">
         <v>1322</v>
@@ -38046,10 +38040,10 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D65" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="E65" t="s">
         <v>1329</v>
@@ -38115,16 +38109,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D66" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E66" t="s">
         <v>1332</v>
       </c>
       <c r="F66" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="G66" t="s">
         <v>1334</v>
@@ -38186,16 +38180,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D67" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E67" t="s">
         <v>1336</v>
       </c>
       <c r="F67" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="G67" t="s">
         <v>1338</v>
@@ -38257,10 +38251,10 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D68" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E68" t="s">
         <v>1339</v>
@@ -38326,22 +38320,22 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D69" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E69" t="s">
         <v>1343</v>
       </c>
       <c r="F69" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H69" t="s">
         <v>1600</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1602</v>
       </c>
       <c r="I69" t="s">
         <v>742</v>
@@ -38397,16 +38391,16 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D70" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E70" t="s">
         <v>1352</v>
       </c>
       <c r="F70" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="G70" t="s">
         <v>1354</v>
@@ -38468,16 +38462,16 @@
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D71" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E71" t="s">
         <v>1349</v>
       </c>
       <c r="F71" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G71" t="s">
         <v>1351</v>
@@ -38539,16 +38533,16 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D72" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E72" t="s">
         <v>1346</v>
       </c>
       <c r="F72" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G72" t="s">
         <v>1348</v>
@@ -38610,16 +38604,16 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D73" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E73" t="s">
         <v>1356</v>
       </c>
       <c r="F73" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G73" t="s">
         <v>1358</v>
@@ -38681,16 +38675,16 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D74" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E74" t="s">
         <v>1360</v>
       </c>
       <c r="F74" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="G74" t="s">
         <v>1362</v>
@@ -38752,10 +38746,10 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D75" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E75" t="s">
         <v>1363</v>
@@ -38821,10 +38815,10 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D76" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E76" t="s">
         <v>1366</v>
@@ -38890,16 +38884,16 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D77" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E77" t="s">
         <v>1369</v>
       </c>
       <c r="F77" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="G77" t="s">
         <v>1371</v>
@@ -38961,16 +38955,16 @@
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D78" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E78" t="s">
         <v>1372</v>
       </c>
       <c r="F78" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="G78" t="s">
         <v>1374</v>
@@ -39032,16 +39026,16 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D79" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E79" t="s">
         <v>1375</v>
       </c>
       <c r="F79" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G79" t="s">
         <v>1377</v>
@@ -39103,16 +39097,16 @@
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D80" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E80" t="s">
         <v>1378</v>
       </c>
       <c r="F80" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="G80" t="s">
         <v>1380</v>
@@ -39174,16 +39168,16 @@
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D81" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E81" t="s">
         <v>1381</v>
       </c>
       <c r="F81" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="G81" t="s">
         <v>1383</v>
@@ -39245,10 +39239,10 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D82" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E82" t="s">
         <v>1384</v>
@@ -39314,10 +39308,10 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D83" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E83" t="s">
         <v>1387</v>
@@ -39383,16 +39377,16 @@
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D84" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E84" t="s">
         <v>1390</v>
       </c>
       <c r="F84" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="G84" t="s">
         <v>1392</v>
@@ -39454,16 +39448,16 @@
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D85" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="E85" t="s">
         <v>1395</v>
       </c>
       <c r="F85" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="G85" t="s">
         <v>1397</v>
@@ -39525,10 +39519,10 @@
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D86" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E86" t="s">
         <v>1399</v>
@@ -39594,16 +39588,16 @@
         <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D87" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E87" t="s">
         <v>1403</v>
       </c>
       <c r="F87" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="G87" t="s">
         <v>1405</v>
@@ -39665,16 +39659,16 @@
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D88" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E88" t="s">
         <v>1406</v>
       </c>
       <c r="F88" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="G88" t="s">
         <v>1408</v>
@@ -39736,16 +39730,16 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D89" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="E89" t="s">
         <v>1409</v>
       </c>
       <c r="F89" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="G89" t="s">
         <v>1411</v>
@@ -39807,16 +39801,16 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D90" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E90" t="s">
         <v>1412</v>
       </c>
       <c r="F90" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="G90" t="s">
         <v>1414</v>
@@ -39878,16 +39872,16 @@
         <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D91" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E91" t="s">
         <v>1415</v>
       </c>
       <c r="F91" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="G91" t="s">
         <v>1417</v>
@@ -39949,16 +39943,16 @@
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D92" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E92" t="s">
         <v>1418</v>
       </c>
       <c r="F92" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="G92" t="s">
         <v>1420</v>
@@ -40020,16 +40014,16 @@
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D93" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="E93" t="s">
         <v>1422</v>
       </c>
       <c r="F93" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="G93" t="s">
         <v>1424</v>
@@ -40091,16 +40085,16 @@
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D94" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="E94" t="s">
         <v>1426</v>
       </c>
       <c r="F94" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="G94" t="s">
         <v>1428</v>
@@ -40162,16 +40156,16 @@
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D95" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E95" t="s">
         <v>1430</v>
       </c>
       <c r="F95" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="G95" t="s">
         <v>1432</v>
@@ -40233,16 +40227,16 @@
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D96" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="E96" t="s">
         <v>1434</v>
       </c>
       <c r="F96" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="G96" t="s">
         <v>1436</v>
@@ -40304,16 +40298,16 @@
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D97" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E97" t="s">
         <v>1437</v>
       </c>
       <c r="F97" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="G97" t="s">
         <v>1439</v>
@@ -40375,16 +40369,16 @@
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D98" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E98" t="s">
         <v>1441</v>
       </c>
       <c r="F98" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="G98" t="s">
         <v>1443</v>
@@ -40446,16 +40440,16 @@
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D99" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E99" t="s">
         <v>1444</v>
       </c>
       <c r="F99" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="G99" t="s">
         <v>1446</v>
@@ -40517,16 +40511,16 @@
         <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D100" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="E100" t="s">
         <v>1449</v>
       </c>
       <c r="F100" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="G100" t="s">
         <v>1451</v>
@@ -40588,16 +40582,16 @@
         <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D101" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E101" t="s">
         <v>1453</v>
       </c>
       <c r="F101" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="G101" t="s">
         <v>1455</v>
@@ -40729,7 +40723,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -40738,7 +40732,7 @@
         <v>1122</v>
       </c>
       <c r="D2" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E2" t="s">
         <v>1124</v>
@@ -40791,19 +40785,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>1691</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E3" t="s">
         <v>1693</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1695</v>
       </c>
       <c r="F3" t="s">
         <v>70</v>
@@ -40830,13 +40824,13 @@
         <v>54</v>
       </c>
       <c r="N3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="P3" t="s">
         <v>1696</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1698</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -40853,7 +40847,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -40862,7 +40856,7 @@
         <v>1153</v>
       </c>
       <c r="D4" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E4" t="s">
         <v>1155</v>
@@ -40915,16 +40909,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D5" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E5" t="s">
         <v>1171</v>
@@ -40948,7 +40942,7 @@
         <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="s">
         <v>54</v>
@@ -40977,7 +40971,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -40986,7 +40980,7 @@
         <v>1184</v>
       </c>
       <c r="D6" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E6" t="s">
         <v>1186</v>
@@ -41039,7 +41033,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -41048,10 +41042,10 @@
         <v>1422</v>
       </c>
       <c r="D7" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E7" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F7" t="s">
         <v>268</v>
@@ -41101,16 +41095,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D8" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E8" t="s">
         <v>1209</v>
@@ -41134,7 +41128,7 @@
         <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="M8" t="s">
         <v>54</v>
@@ -41163,22 +41157,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E9" t="s">
         <v>1709</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>1710</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1712</v>
       </c>
       <c r="G9" t="s">
         <v>331</v>
@@ -41196,7 +41190,7 @@
         <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="M9" t="s">
         <v>54</v>
@@ -41225,16 +41219,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D10" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E10" t="s">
         <v>1232</v>
@@ -41258,7 +41252,7 @@
         <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
@@ -41287,22 +41281,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E11" t="s">
         <v>1717</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>1718</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1719</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1720</v>
       </c>
       <c r="G11" t="s">
         <v>377</v>
@@ -41349,22 +41343,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E12" t="s">
         <v>1721</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>1722</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1724</v>
       </c>
       <c r="G12" t="s">
         <v>406</v>
@@ -41411,7 +41405,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -41420,7 +41414,7 @@
         <v>1263</v>
       </c>
       <c r="D13" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E13" t="s">
         <v>1265</v>
@@ -41473,22 +41467,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E14" t="s">
         <v>1726</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>1727</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1729</v>
       </c>
       <c r="G14" t="s">
         <v>546</v>
@@ -41506,7 +41500,7 @@
         <v>93</v>
       </c>
       <c r="L14" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="M14" t="s">
         <v>54</v>
@@ -41535,7 +41529,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -41544,7 +41538,7 @@
         <v>1281</v>
       </c>
       <c r="D15" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E15" t="s">
         <v>1283</v>
@@ -41597,7 +41591,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -41606,7 +41600,7 @@
         <v>1296</v>
       </c>
       <c r="D16" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E16" t="s">
         <v>1298</v>
@@ -41659,7 +41653,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -41668,7 +41662,7 @@
         <v>1302</v>
       </c>
       <c r="D17" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E17" t="s">
         <v>1304</v>
@@ -41721,7 +41715,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -41730,7 +41724,7 @@
         <v>1316</v>
       </c>
       <c r="D18" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="E18" t="s">
         <v>1318</v>
@@ -41783,7 +41777,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -41792,7 +41786,7 @@
         <v>1204</v>
       </c>
       <c r="D19" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="E19" t="s">
         <v>1206</v>
@@ -41845,7 +41839,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -41854,7 +41848,7 @@
         <v>1329</v>
       </c>
       <c r="D20" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="E20" t="s">
         <v>1331</v>
@@ -41907,7 +41901,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -41916,7 +41910,7 @@
         <v>1336</v>
       </c>
       <c r="D21" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="E21" t="s">
         <v>1338</v>
@@ -41969,7 +41963,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -41978,10 +41972,10 @@
         <v>1356</v>
       </c>
       <c r="D22" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="E22" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="F22" t="s">
         <v>800</v>
@@ -42031,7 +42025,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -42040,7 +42034,7 @@
         <v>1349</v>
       </c>
       <c r="D23" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="E23" t="s">
         <v>1351</v>
@@ -42093,7 +42087,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -42102,7 +42096,7 @@
         <v>1363</v>
       </c>
       <c r="D24" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="E24" t="s">
         <v>1365</v>
@@ -42155,7 +42149,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -42164,7 +42158,7 @@
         <v>1395</v>
       </c>
       <c r="D25" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E25" t="s">
         <v>1397</v>
@@ -42217,16 +42211,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D26" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="E26" t="s">
         <v>1371</v>
@@ -42279,16 +42273,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D27" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="E27" t="s">
         <v>1328</v>
@@ -42341,22 +42335,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E28" t="s">
         <v>1747</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>1748</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1750</v>
       </c>
       <c r="G28" t="s">
         <v>742</v>
@@ -42374,7 +42368,7 @@
         <v>154</v>
       </c>
       <c r="L28" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="M28" t="s">
         <v>54</v>
@@ -42403,22 +42397,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E29" t="s">
         <v>1752</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>1753</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1755</v>
       </c>
       <c r="G29" t="s">
         <v>985</v>
@@ -42436,7 +42430,7 @@
         <v>87</v>
       </c>
       <c r="L29" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="M29" t="s">
         <v>54</v>
@@ -42465,22 +42459,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E30" t="s">
         <v>1757</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>1758</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1760</v>
       </c>
       <c r="G30" t="s">
         <v>956</v>
@@ -42527,7 +42521,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -42536,7 +42530,7 @@
         <v>1449</v>
       </c>
       <c r="D31" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="E31" t="s">
         <v>1451</v>
@@ -42589,22 +42583,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E32" t="s">
         <v>1762</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>1763</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1765</v>
       </c>
       <c r="G32" t="s">
         <v>772</v>
@@ -42622,19 +42616,19 @@
         <v>93</v>
       </c>
       <c r="L32" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="M32" t="s">
         <v>54</v>
       </c>
       <c r="N32" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="O32" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="P32" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="Q32" t="s">
         <v>39</v>
@@ -42651,22 +42645,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E33" t="s">
         <v>1769</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>1770</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1772</v>
       </c>
       <c r="G33" t="s">
         <v>1068</v>
@@ -42713,22 +42707,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E34" t="s">
         <v>1773</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>1774</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1776</v>
       </c>
       <c r="G34" t="s">
         <v>1038</v>
@@ -42775,22 +42769,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E35" t="s">
         <v>1777</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>1778</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1780</v>
       </c>
       <c r="G35" t="s">
         <v>714</v>
@@ -42808,7 +42802,7 @@
         <v>154</v>
       </c>
       <c r="L35" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="M35" t="s">
         <v>54</v>
@@ -42837,22 +42831,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E36" t="s">
         <v>1782</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>1783</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1785</v>
       </c>
       <c r="G36" t="s">
         <v>827</v>
@@ -42870,7 +42864,7 @@
         <v>154</v>
       </c>
       <c r="L36" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="M36" t="s">
         <v>54</v>
@@ -42899,22 +42893,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E37" t="s">
         <v>1787</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>1788</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1790</v>
       </c>
       <c r="G37" t="s">
         <v>1098</v>
@@ -42932,7 +42926,7 @@
         <v>154</v>
       </c>
       <c r="L37" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="M37" t="s">
         <v>33</v>
@@ -42961,22 +42955,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E38" t="s">
         <v>1792</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>1793</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1794</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1795</v>
       </c>
       <c r="G38" t="s">
         <v>531</v>
@@ -43023,19 +43017,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E39" t="s">
         <v>1796</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1798</v>
       </c>
       <c r="F39" t="s">
         <v>470</v>
@@ -43085,19 +43079,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E40" t="s">
         <v>1799</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1801</v>
       </c>
       <c r="F40" t="s">
         <v>428</v>
@@ -43147,19 +43141,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E41" t="s">
         <v>1802</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1804</v>
       </c>
       <c r="F41" t="s">
         <v>225</v>
@@ -43209,20 +43203,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D42" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
@@ -43239,7 +43233,7 @@
         <v>34</v>
       </c>
       <c r="O42" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P42"/>
       <c r="Q42" t="s">
@@ -43252,25 +43246,25 @@
         <v>41</v>
       </c>
       <c r="T42" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D43" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="G43" t="s">
         <v>1394</v>
@@ -43287,7 +43281,7 @@
         <v>34</v>
       </c>
       <c r="O43" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P43"/>
       <c r="Q43" t="s">
@@ -43300,25 +43294,25 @@
         <v>41</v>
       </c>
       <c r="T43" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D44" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -43335,7 +43329,7 @@
         <v>34</v>
       </c>
       <c r="O44" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
@@ -43348,25 +43342,25 @@
         <v>41</v>
       </c>
       <c r="T44" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D45" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="G45" t="s">
         <v>139</v>
@@ -43383,7 +43377,7 @@
         <v>34</v>
       </c>
       <c r="O45" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P45"/>
       <c r="Q45" t="s">
@@ -43396,25 +43390,25 @@
         <v>41</v>
       </c>
       <c r="T45" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D46" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="G46" t="s">
         <v>163</v>
@@ -43431,7 +43425,7 @@
         <v>34</v>
       </c>
       <c r="O46" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P46"/>
       <c r="Q46" t="s">
@@ -43444,25 +43438,25 @@
         <v>41</v>
       </c>
       <c r="T46" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D47" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="G47" t="s">
         <v>218</v>
@@ -43479,7 +43473,7 @@
         <v>34</v>
       </c>
       <c r="O47" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P47"/>
       <c r="Q47" t="s">
@@ -43492,25 +43486,25 @@
         <v>41</v>
       </c>
       <c r="T47" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D48" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="G48" t="s">
         <v>254</v>
@@ -43527,7 +43521,7 @@
         <v>34</v>
       </c>
       <c r="O48" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P48"/>
       <c r="Q48" t="s">
@@ -43540,25 +43534,25 @@
         <v>41</v>
       </c>
       <c r="T48" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D49" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="G49" t="s">
         <v>283</v>
@@ -43575,7 +43569,7 @@
         <v>34</v>
       </c>
       <c r="O49" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P49"/>
       <c r="Q49" t="s">
@@ -43588,25 +43582,25 @@
         <v>41</v>
       </c>
       <c r="T49" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D50" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="G50" t="s">
         <v>312</v>
@@ -43623,7 +43617,7 @@
         <v>34</v>
       </c>
       <c r="O50" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P50"/>
       <c r="Q50" t="s">
@@ -43636,25 +43630,25 @@
         <v>41</v>
       </c>
       <c r="T50" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D51" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="G51" t="s">
         <v>331</v>
@@ -43671,7 +43665,7 @@
         <v>34</v>
       </c>
       <c r="O51" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P51"/>
       <c r="Q51" t="s">
@@ -43684,25 +43678,25 @@
         <v>41</v>
       </c>
       <c r="T51" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="D52" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="G52" t="s">
         <v>360</v>
@@ -43719,7 +43713,7 @@
         <v>34</v>
       </c>
       <c r="O52" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P52"/>
       <c r="Q52" t="s">
@@ -43732,25 +43726,25 @@
         <v>41</v>
       </c>
       <c r="T52" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D53" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="G53" t="s">
         <v>377</v>
@@ -43767,7 +43761,7 @@
         <v>34</v>
       </c>
       <c r="O53" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P53"/>
       <c r="Q53" t="s">
@@ -43780,25 +43774,25 @@
         <v>41</v>
       </c>
       <c r="T53" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D54" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="G54" t="s">
         <v>406</v>
@@ -43815,7 +43809,7 @@
         <v>34</v>
       </c>
       <c r="O54" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P54"/>
       <c r="Q54" t="s">
@@ -43828,25 +43822,25 @@
         <v>41</v>
       </c>
       <c r="T54" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D55" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="G55" t="s">
         <v>459</v>
@@ -43863,7 +43857,7 @@
         <v>34</v>
       </c>
       <c r="O55" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P55"/>
       <c r="Q55" t="s">
@@ -43876,25 +43870,25 @@
         <v>41</v>
       </c>
       <c r="T55" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B56" t="s">
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="D56" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="G56" t="s">
         <v>429</v>
@@ -43911,7 +43905,7 @@
         <v>34</v>
       </c>
       <c r="O56" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P56"/>
       <c r="Q56" t="s">
@@ -43924,25 +43918,25 @@
         <v>41</v>
       </c>
       <c r="T56" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D57" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="G57" t="s">
         <v>481</v>
@@ -43959,7 +43953,7 @@
         <v>34</v>
       </c>
       <c r="O57" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P57"/>
       <c r="Q57" t="s">
@@ -43972,25 +43966,25 @@
         <v>41</v>
       </c>
       <c r="T57" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D58" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="G58" t="s">
         <v>546</v>
@@ -44007,7 +44001,7 @@
         <v>34</v>
       </c>
       <c r="O58" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P58"/>
       <c r="Q58" t="s">
@@ -44020,25 +44014,25 @@
         <v>41</v>
       </c>
       <c r="T58" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D59" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="G59" t="s">
         <v>505</v>
@@ -44055,7 +44049,7 @@
         <v>34</v>
       </c>
       <c r="O59" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P59"/>
       <c r="Q59" t="s">
@@ -44068,25 +44062,25 @@
         <v>41</v>
       </c>
       <c r="T59" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B60" t="s">
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D60" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="G60" t="s">
         <v>561</v>
@@ -44103,7 +44097,7 @@
         <v>34</v>
       </c>
       <c r="O60" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P60"/>
       <c r="Q60" t="s">
@@ -44116,25 +44110,25 @@
         <v>41</v>
       </c>
       <c r="T60" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D61" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="G61" t="s">
         <v>531</v>
@@ -44151,7 +44145,7 @@
         <v>34</v>
       </c>
       <c r="O61" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P61"/>
       <c r="Q61" t="s">
@@ -44164,25 +44158,25 @@
         <v>41</v>
       </c>
       <c r="T61" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D62" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="G62" t="s">
         <v>581</v>
@@ -44199,7 +44193,7 @@
         <v>34</v>
       </c>
       <c r="O62" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P62"/>
       <c r="Q62" t="s">
@@ -44212,25 +44206,25 @@
         <v>41</v>
       </c>
       <c r="T62" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D63" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="G63" t="s">
         <v>610</v>
@@ -44247,7 +44241,7 @@
         <v>34</v>
       </c>
       <c r="O63" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P63"/>
       <c r="Q63" t="s">
@@ -44260,25 +44254,25 @@
         <v>41</v>
       </c>
       <c r="T63" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D64" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="G64" t="s">
         <v>626</v>
@@ -44295,7 +44289,7 @@
         <v>34</v>
       </c>
       <c r="O64" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P64"/>
       <c r="Q64" t="s">
@@ -44308,25 +44302,25 @@
         <v>41</v>
       </c>
       <c r="T64" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D65" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="G65" t="s">
         <v>651</v>
@@ -44343,7 +44337,7 @@
         <v>34</v>
       </c>
       <c r="O65" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P65"/>
       <c r="Q65" t="s">
@@ -44356,25 +44350,25 @@
         <v>41</v>
       </c>
       <c r="T65" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D66" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="G66" t="s">
         <v>695</v>
@@ -44391,7 +44385,7 @@
         <v>34</v>
       </c>
       <c r="O66" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P66"/>
       <c r="Q66" t="s">
@@ -44404,25 +44398,25 @@
         <v>41</v>
       </c>
       <c r="T66" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="D67" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="G67" t="s">
         <v>772</v>
@@ -44439,7 +44433,7 @@
         <v>34</v>
       </c>
       <c r="O67" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P67"/>
       <c r="Q67" t="s">
@@ -44452,25 +44446,25 @@
         <v>41</v>
       </c>
       <c r="T67" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="D68" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G68" t="s">
         <v>742</v>
@@ -44487,7 +44481,7 @@
         <v>34</v>
       </c>
       <c r="O68" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P68"/>
       <c r="Q68" t="s">
@@ -44500,25 +44494,25 @@
         <v>41</v>
       </c>
       <c r="T68" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D69" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="G69" t="s">
         <v>360</v>
@@ -44535,7 +44529,7 @@
         <v>34</v>
       </c>
       <c r="O69" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P69"/>
       <c r="Q69" t="s">
@@ -44548,25 +44542,25 @@
         <v>41</v>
       </c>
       <c r="T69" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="D70" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="G70" t="s">
         <v>459</v>
@@ -44583,7 +44577,7 @@
         <v>34</v>
       </c>
       <c r="O70" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P70"/>
       <c r="Q70" t="s">
@@ -44596,25 +44590,25 @@
         <v>41</v>
       </c>
       <c r="T70" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B71" t="s">
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D71" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="G71" t="s">
         <v>481</v>
@@ -44631,7 +44625,7 @@
         <v>34</v>
       </c>
       <c r="O71" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P71"/>
       <c r="Q71" t="s">
@@ -44644,25 +44638,25 @@
         <v>41</v>
       </c>
       <c r="T71" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D72" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="G72" t="s">
         <v>827</v>
@@ -44679,7 +44673,7 @@
         <v>34</v>
       </c>
       <c r="O72" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P72"/>
       <c r="Q72" t="s">
@@ -44692,25 +44686,25 @@
         <v>41</v>
       </c>
       <c r="T72" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D73" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="G73" t="s">
         <v>801</v>
@@ -44727,7 +44721,7 @@
         <v>34</v>
       </c>
       <c r="O73" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P73"/>
       <c r="Q73" t="s">
@@ -44740,25 +44734,25 @@
         <v>41</v>
       </c>
       <c r="T73" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="D74" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="G74" t="s">
         <v>856</v>
@@ -44775,7 +44769,7 @@
         <v>34</v>
       </c>
       <c r="O74" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P74"/>
       <c r="Q74" t="s">
@@ -44788,25 +44782,25 @@
         <v>41</v>
       </c>
       <c r="T74" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D75" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="G75" t="s">
         <v>885</v>
@@ -44823,7 +44817,7 @@
         <v>34</v>
       </c>
       <c r="O75" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P75"/>
       <c r="Q75" t="s">
@@ -44836,25 +44830,25 @@
         <v>41</v>
       </c>
       <c r="T75" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D76" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="G76" t="s">
         <v>59</v>
@@ -44871,7 +44865,7 @@
         <v>34</v>
       </c>
       <c r="O76" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P76"/>
       <c r="Q76" t="s">
@@ -44884,25 +44878,25 @@
         <v>41</v>
       </c>
       <c r="T76" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D77" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G77" t="s">
         <v>911</v>
@@ -44919,7 +44913,7 @@
         <v>34</v>
       </c>
       <c r="O77" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P77"/>
       <c r="Q77" t="s">
@@ -44932,25 +44926,25 @@
         <v>41</v>
       </c>
       <c r="T77" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D78" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G78" t="s">
         <v>714</v>
@@ -44967,7 +44961,7 @@
         <v>34</v>
       </c>
       <c r="O78" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P78"/>
       <c r="Q78" t="s">
@@ -44980,25 +44974,25 @@
         <v>41</v>
       </c>
       <c r="T78" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D79" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="G79" t="s">
         <v>666</v>
@@ -45015,7 +45009,7 @@
         <v>34</v>
       </c>
       <c r="O79" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P79"/>
       <c r="Q79" t="s">
@@ -45028,25 +45022,25 @@
         <v>41</v>
       </c>
       <c r="T79" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D80" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="G80" t="s">
         <v>926</v>
@@ -45063,7 +45057,7 @@
         <v>34</v>
       </c>
       <c r="O80" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P80"/>
       <c r="Q80" t="s">
@@ -45076,25 +45070,25 @@
         <v>41</v>
       </c>
       <c r="T80" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D81" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="G81" t="s">
         <v>956</v>
@@ -45111,7 +45105,7 @@
         <v>34</v>
       </c>
       <c r="O81" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P81"/>
       <c r="Q81" t="s">
@@ -45124,25 +45118,25 @@
         <v>41</v>
       </c>
       <c r="T81" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D82" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="G82" t="s">
         <v>985</v>
@@ -45159,7 +45153,7 @@
         <v>34</v>
       </c>
       <c r="O82" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P82"/>
       <c r="Q82" t="s">
@@ -45172,25 +45166,25 @@
         <v>41</v>
       </c>
       <c r="T82" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D83" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="G83" t="s">
         <v>1009</v>
@@ -45207,7 +45201,7 @@
         <v>34</v>
       </c>
       <c r="O83" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P83"/>
       <c r="Q83" t="s">
@@ -45220,25 +45214,25 @@
         <v>41</v>
       </c>
       <c r="T83" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D84" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="G84" t="s">
         <v>1068</v>
@@ -45255,7 +45249,7 @@
         <v>34</v>
       </c>
       <c r="O84" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P84"/>
       <c r="Q84" t="s">
@@ -45268,25 +45262,25 @@
         <v>41</v>
       </c>
       <c r="T84" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D85" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="G85" t="s">
         <v>1038</v>
@@ -45303,7 +45297,7 @@
         <v>34</v>
       </c>
       <c r="O85" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P85"/>
       <c r="Q85" t="s">
@@ -45316,25 +45310,25 @@
         <v>41</v>
       </c>
       <c r="T85" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D86" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="G86" t="s">
         <v>1098</v>
@@ -45351,7 +45345,7 @@
         <v>34</v>
       </c>
       <c r="O86" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="P86"/>
       <c r="Q86" t="s">
@@ -45364,7 +45358,7 @@
         <v>41</v>
       </c>
       <c r="T86" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
   </sheetData>
@@ -45442,19 +45436,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D2" t="s">
         <v>1939</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>1940</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1942</v>
       </c>
       <c r="F2" t="s">
         <v>283</v>
@@ -45501,13 +45495,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D3" t="s">
         <v>1272</v>
@@ -45560,13 +45554,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D4" t="s">
         <v>1298</v>
@@ -45619,19 +45613,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E5" t="s">
         <v>1945</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1946</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1947</v>
       </c>
       <c r="F5" t="s">
         <v>714</v>
@@ -45655,13 +45649,13 @@
         <v>33</v>
       </c>
       <c r="M5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O5" t="s">
         <v>1696</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1697</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1698</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
@@ -45678,19 +45672,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E6" t="s">
         <v>1948</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1950</v>
       </c>
       <c r="F6" t="s">
         <v>666</v>
@@ -45737,19 +45731,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E7" t="s">
         <v>1951</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1952</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1953</v>
       </c>
       <c r="F7" t="s">
         <v>742</v>
@@ -45767,7 +45761,7 @@
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
@@ -45796,19 +45790,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E8" t="s">
         <v>1955</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1957</v>
       </c>
       <c r="F8" t="s">
         <v>801</v>
@@ -45855,19 +45849,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E9" t="s">
         <v>1958</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1960</v>
       </c>
       <c r="F9" t="s">
         <v>1038</v>
@@ -45934,25 +45928,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E1" t="s">
         <v>1961</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1962</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>1963</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1964</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>1965</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1966</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1967</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -46005,28 +45999,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D2" t="s">
         <v>1968</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>1969</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1970</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1971</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>1972</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1974</v>
       </c>
       <c r="I2" t="s">
         <v>52</v>
@@ -46082,31 +46076,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I3" t="s">
         <v>1975</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1977</v>
       </c>
       <c r="J3" t="s">
         <v>1145</v>
@@ -46159,37 +46153,37 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D4" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="E4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G4" t="s">
         <v>1971</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>1972</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1974</v>
       </c>
       <c r="I4" t="s">
         <v>1165</v>
       </c>
       <c r="J4" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="K4" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="L4" t="s">
         <v>1394</v>
@@ -46236,31 +46230,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F5" t="s">
         <v>1982</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>1983</v>
       </c>
-      <c r="E5" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I5" t="s">
         <v>1984</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1986</v>
       </c>
       <c r="J5" t="s">
         <v>1161</v>
@@ -46313,25 +46307,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F6" t="s">
         <v>1987</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>1988</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1989</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1990</v>
       </c>
       <c r="H6" t="s">
         <v>71</v>
@@ -46390,31 +46384,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D7" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G7" t="s">
         <v>1971</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>1972</v>
       </c>
-      <c r="G7" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1974</v>
-      </c>
       <c r="I7" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J7" t="s">
         <v>1186</v>
@@ -46467,31 +46461,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I8" t="s">
         <v>1993</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1994</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1995</v>
       </c>
       <c r="J8" t="s">
         <v>1197</v>
@@ -46544,31 +46538,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D9" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E9" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G9" t="s">
         <v>1971</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>1972</v>
       </c>
-      <c r="G9" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1974</v>
-      </c>
       <c r="I9" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J9" t="s">
         <v>1200</v>
@@ -46621,28 +46615,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D10" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E10" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G10" t="s">
         <v>1971</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>1972</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1974</v>
       </c>
       <c r="I10" t="s">
         <v>52</v>
@@ -46698,31 +46692,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D11" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E11" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G11" t="s">
         <v>1971</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>1972</v>
       </c>
-      <c r="G11" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1974</v>
-      </c>
       <c r="I11" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J11" t="s">
         <v>1212</v>
@@ -46775,31 +46769,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H12" t="s">
         <v>2002</v>
       </c>
-      <c r="D12" t="s">
-        <v>2003</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2004</v>
-      </c>
       <c r="I12" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J12" t="s">
         <v>1226</v>
@@ -46852,31 +46846,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D13" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E13" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G13" t="s">
         <v>1971</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>1972</v>
       </c>
-      <c r="G13" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1974</v>
-      </c>
       <c r="I13" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J13" t="s">
         <v>1229</v>
@@ -46929,31 +46923,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D14" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E14" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="F14" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G14" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="H14" t="s">
         <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J14" t="s">
         <v>1242</v>
@@ -46974,7 +46968,7 @@
         <v>71</v>
       </c>
       <c r="P14" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="Q14" t="s">
         <v>54</v>
@@ -47006,34 +47000,34 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J15" t="s">
         <v>2010</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2011</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2012</v>
       </c>
       <c r="K15" t="s">
         <v>410</v>
@@ -47083,34 +47077,34 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2002</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J16" t="s">
         <v>2013</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2014</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2004</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2015</v>
       </c>
       <c r="K16" t="s">
         <v>458</v>
@@ -47160,28 +47154,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D17" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E17" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G17" t="s">
         <v>1971</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>1972</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1974</v>
       </c>
       <c r="I17" t="s">
         <v>71</v>
@@ -47205,7 +47199,7 @@
         <v>71</v>
       </c>
       <c r="P17" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="Q17" t="s">
         <v>54</v>
@@ -47237,34 +47231,34 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J18" t="s">
         <v>2019</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2020</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2021</v>
       </c>
       <c r="K18" t="s">
         <v>497</v>
@@ -47314,28 +47308,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E19" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G19" t="s">
         <v>1971</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>1972</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1974</v>
       </c>
       <c r="I19" t="s">
         <v>52</v>
@@ -47391,37 +47385,37 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H20" t="s">
         <v>2024</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J20" t="s">
         <v>2025</v>
       </c>
-      <c r="E20" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
         <v>2026</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2027</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2028</v>
       </c>
       <c r="L20" t="s">
         <v>505</v>
@@ -47436,7 +47430,7 @@
         <v>154</v>
       </c>
       <c r="P20" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="Q20" t="s">
         <v>54</v>
@@ -47468,28 +47462,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D21" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="E21" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G21" t="s">
         <v>1971</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>1972</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1974</v>
       </c>
       <c r="I21" t="s">
         <v>52</v>
@@ -47545,37 +47539,37 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J22" t="s">
         <v>2031</v>
       </c>
-      <c r="D22" t="s">
+      <c r="K22" t="s">
         <v>2032</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1977</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2033</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2034</v>
       </c>
       <c r="L22" t="s">
         <v>531</v>
@@ -47622,31 +47616,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D23" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="E23" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="F23" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I23" t="s">
         <v>1984</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1986</v>
       </c>
       <c r="J23" t="s">
         <v>1311</v>
@@ -47699,37 +47693,37 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D24" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="E24" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G24" t="s">
         <v>1971</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>1972</v>
       </c>
-      <c r="G24" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1974</v>
-      </c>
       <c r="I24" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J24" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="K24" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="L24" t="s">
         <v>610</v>
@@ -47776,34 +47770,34 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J25" t="s">
         <v>2039</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2040</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1984</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2041</v>
       </c>
       <c r="K25" t="s">
         <v>625</v>
@@ -47853,31 +47847,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D26" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="E26" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G26" t="s">
         <v>1971</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>1972</v>
       </c>
-      <c r="G26" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1974</v>
-      </c>
       <c r="I26" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J26" t="s">
         <v>1405</v>
@@ -47930,28 +47924,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D27" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="E27" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G27" t="s">
         <v>1971</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>1972</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1974</v>
       </c>
       <c r="I27" t="s">
         <v>52</v>
@@ -48007,37 +48001,37 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I28" t="s">
         <v>2046</v>
       </c>
-      <c r="D28" t="s">
+      <c r="J28" t="s">
         <v>2047</v>
       </c>
-      <c r="E28" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>2048</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2049</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2050</v>
       </c>
       <c r="L28" t="s">
         <v>714</v>
@@ -48052,7 +48046,7 @@
         <v>154</v>
       </c>
       <c r="P28" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="Q28" t="s">
         <v>54</v>
@@ -48084,37 +48078,37 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D29" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="E29" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G29" t="s">
         <v>1971</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>1972</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1974</v>
       </c>
       <c r="I29" t="s">
         <v>52</v>
       </c>
       <c r="J29" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="K29" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="L29" t="s">
         <v>666</v>
@@ -48161,37 +48155,37 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D30" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="E30" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G30" t="s">
         <v>1971</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>1972</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1974</v>
       </c>
       <c r="I30" t="s">
         <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="K30" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="L30" t="s">
         <v>772</v>
@@ -48238,37 +48232,37 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J31" t="s">
         <v>2058</v>
       </c>
-      <c r="D31" t="s">
+      <c r="K31" t="s">
         <v>2059</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J31" t="s">
-        <v>2060</v>
-      </c>
-      <c r="K31" t="s">
-        <v>2061</v>
       </c>
       <c r="L31" t="s">
         <v>742</v>
@@ -48283,7 +48277,7 @@
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="Q31" t="s">
         <v>33</v>
@@ -48315,34 +48309,34 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J32" t="s">
         <v>2063</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2065</v>
       </c>
       <c r="K32" t="s">
         <v>826</v>
@@ -48366,13 +48360,13 @@
         <v>33</v>
       </c>
       <c r="R32" t="s">
+        <v>1694</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1695</v>
+      </c>
+      <c r="T32" t="s">
         <v>1696</v>
-      </c>
-      <c r="S32" t="s">
-        <v>1697</v>
-      </c>
-      <c r="T32" t="s">
-        <v>1698</v>
       </c>
       <c r="U32" t="b">
         <v>0</v>
@@ -48392,34 +48386,34 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F33" t="s">
         <v>2066</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>2067</v>
       </c>
-      <c r="E33" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J33" t="s">
         <v>2068</v>
-      </c>
-      <c r="G33" t="s">
-        <v>2069</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J33" t="s">
-        <v>2070</v>
       </c>
       <c r="K33" t="s">
         <v>808</v>
@@ -48469,31 +48463,31 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D34" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="E34" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G34" t="s">
         <v>1971</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>1972</v>
       </c>
-      <c r="G34" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1974</v>
-      </c>
       <c r="I34" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J34" t="s">
         <v>1348</v>
@@ -48546,31 +48540,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="D35" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="E35" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="F35" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I35" t="s">
         <v>1984</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1986</v>
       </c>
       <c r="J35" t="s">
         <v>1362</v>
@@ -48623,28 +48617,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="D36" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E36" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G36" t="s">
         <v>1971</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>1972</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1974</v>
       </c>
       <c r="I36" t="s">
         <v>52</v>
@@ -48700,28 +48694,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D37" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="E37" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G37" t="s">
         <v>1971</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>1972</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1974</v>
       </c>
       <c r="I37" t="s">
         <v>52</v>
@@ -48777,37 +48771,37 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H38" t="s">
         <v>2079</v>
       </c>
-      <c r="D38" t="s">
+      <c r="I38" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J38" t="s">
         <v>2080</v>
       </c>
-      <c r="E38" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1984</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="K38" t="s">
         <v>2081</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J38" t="s">
-        <v>2082</v>
-      </c>
-      <c r="K38" t="s">
-        <v>2083</v>
       </c>
       <c r="L38" t="s">
         <v>956</v>
@@ -48854,37 +48848,37 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I39" t="s">
         <v>2084</v>
       </c>
-      <c r="D39" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I39" t="s">
-        <v>2086</v>
-      </c>
       <c r="J39" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="K39" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="L39" t="s">
         <v>985</v>
@@ -48899,7 +48893,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="Q39" t="s">
         <v>54</v>
@@ -48931,34 +48925,34 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J40" t="s">
         <v>2088</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2090</v>
       </c>
       <c r="K40" t="s">
         <v>1008</v>
@@ -49008,37 +49002,37 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
       <c r="C41" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1972</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J41" t="s">
         <v>2091</v>
       </c>
-      <c r="D41" t="s">
+      <c r="K41" t="s">
         <v>2092</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1986</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2093</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2094</v>
       </c>
       <c r="L41" t="s">
         <v>1038</v>
@@ -49085,37 +49079,37 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D42" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="E42" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G42" t="s">
         <v>1971</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>1972</v>
       </c>
-      <c r="G42" t="s">
-        <v>1973</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1974</v>
-      </c>
       <c r="I42" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="J42" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="K42" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="L42" t="s">
         <v>1068</v>
@@ -49162,37 +49156,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="C43" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2079</v>
+      </c>
+      <c r="I43" t="s">
         <v>2097</v>
       </c>
-      <c r="D43" t="s">
+      <c r="J43" t="s">
         <v>2098</v>
       </c>
-      <c r="E43" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1984</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H43" t="s">
-        <v>2081</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>2099</v>
-      </c>
-      <c r="J43" t="s">
-        <v>2100</v>
-      </c>
-      <c r="K43" t="s">
-        <v>2101</v>
       </c>
       <c r="L43" t="s">
         <v>1098</v>
@@ -49239,19 +49233,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D44" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="E44" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
@@ -49287,24 +49281,24 @@
         <v>41</v>
       </c>
       <c r="Y44" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B45" t="s">
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D45" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="E45" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
@@ -49340,24 +49334,24 @@
         <v>41</v>
       </c>
       <c r="Y45" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D46" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="E46" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
@@ -49393,24 +49387,24 @@
         <v>41</v>
       </c>
       <c r="Y46" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D47" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="E47" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
@@ -49446,24 +49440,24 @@
         <v>41</v>
       </c>
       <c r="Y47" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D48" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="E48" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
@@ -49499,24 +49493,24 @@
         <v>41</v>
       </c>
       <c r="Y48" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D49" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="E49" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
@@ -49552,24 +49546,24 @@
         <v>41</v>
       </c>
       <c r="Y49" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D50" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="E50" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
@@ -49605,24 +49599,24 @@
         <v>41</v>
       </c>
       <c r="Y50" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D51" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="E51" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
@@ -49658,24 +49652,24 @@
         <v>41</v>
       </c>
       <c r="Y51" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D52" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="E52" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
@@ -49711,24 +49705,24 @@
         <v>41</v>
       </c>
       <c r="Y52" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D53" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="E53" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
@@ -49764,24 +49758,24 @@
         <v>41</v>
       </c>
       <c r="Y53" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D54" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="E54" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -49817,24 +49811,24 @@
         <v>41</v>
       </c>
       <c r="Y54" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D55" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E55" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
@@ -49870,24 +49864,24 @@
         <v>41</v>
       </c>
       <c r="Y55" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B56" t="s">
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D56" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="E56" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -49923,24 +49917,24 @@
         <v>41</v>
       </c>
       <c r="Y56" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D57" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E57" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -49976,24 +49970,24 @@
         <v>41</v>
       </c>
       <c r="Y57" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D58" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E58" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -50029,24 +50023,24 @@
         <v>41</v>
       </c>
       <c r="Y58" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D59" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="E59" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -50082,24 +50076,24 @@
         <v>41</v>
       </c>
       <c r="Y59" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B60" t="s">
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E60" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -50135,24 +50129,24 @@
         <v>41</v>
       </c>
       <c r="Y60" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D61" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="E61" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
@@ -50188,24 +50182,24 @@
         <v>41</v>
       </c>
       <c r="Y61" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D62" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="E62" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
@@ -50241,24 +50235,24 @@
         <v>41</v>
       </c>
       <c r="Y62" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D63" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="E63" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
@@ -50294,24 +50288,24 @@
         <v>41</v>
       </c>
       <c r="Y63" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D64" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="E64" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F64"/>
       <c r="G64"/>
@@ -50347,24 +50341,24 @@
         <v>41</v>
       </c>
       <c r="Y64" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D65" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="E65" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
@@ -50400,24 +50394,24 @@
         <v>41</v>
       </c>
       <c r="Y65" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D66" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="E66" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
@@ -50453,24 +50447,24 @@
         <v>41</v>
       </c>
       <c r="Y66" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D67" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="E67" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F67"/>
       <c r="G67"/>
@@ -50506,24 +50500,24 @@
         <v>41</v>
       </c>
       <c r="Y67" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D68" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="E68" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
@@ -50559,24 +50553,24 @@
         <v>41</v>
       </c>
       <c r="Y68" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D69" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="E69" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
@@ -50612,24 +50606,24 @@
         <v>41</v>
       </c>
       <c r="Y69" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D70" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="E70" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
@@ -50665,24 +50659,24 @@
         <v>41</v>
       </c>
       <c r="Y70" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B71" t="s">
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D71" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="E71" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
@@ -50718,24 +50712,24 @@
         <v>41</v>
       </c>
       <c r="Y71" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="D72" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="E72" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
@@ -50771,24 +50765,24 @@
         <v>41</v>
       </c>
       <c r="Y72" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D73" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="E73" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
@@ -50824,24 +50818,24 @@
         <v>41</v>
       </c>
       <c r="Y73" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="D74" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="E74" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F74"/>
       <c r="G74"/>
@@ -50877,24 +50871,24 @@
         <v>41</v>
       </c>
       <c r="Y74" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D75" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="E75" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F75"/>
       <c r="G75"/>
@@ -50930,24 +50924,24 @@
         <v>41</v>
       </c>
       <c r="Y75" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="D76" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="E76" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
@@ -50983,24 +50977,24 @@
         <v>41</v>
       </c>
       <c r="Y76" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="D77" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="E77" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F77"/>
       <c r="G77"/>
@@ -51036,24 +51030,24 @@
         <v>41</v>
       </c>
       <c r="Y77" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D78" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="E78" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F78"/>
       <c r="G78"/>
@@ -51089,24 +51083,24 @@
         <v>41</v>
       </c>
       <c r="Y78" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D79" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="E79" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
@@ -51142,24 +51136,24 @@
         <v>41</v>
       </c>
       <c r="Y79" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D80" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="E80" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F80"/>
       <c r="G80"/>
@@ -51195,24 +51189,24 @@
         <v>41</v>
       </c>
       <c r="Y80" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D81" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="E81" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
@@ -51248,24 +51242,24 @@
         <v>41</v>
       </c>
       <c r="Y81" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D82" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="E82" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
@@ -51301,24 +51295,24 @@
         <v>41</v>
       </c>
       <c r="Y82" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D83" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="E83" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
@@ -51354,24 +51348,24 @@
         <v>41</v>
       </c>
       <c r="Y83" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D84" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="E84" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
@@ -51407,24 +51401,24 @@
         <v>41</v>
       </c>
       <c r="Y84" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D85" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="E85" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -51460,7 +51454,7 @@
         <v>41</v>
       </c>
       <c r="Y85" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
   </sheetData>
